--- a/Timesheet(陈富康).xlsx
+++ b/Timesheet(陈富康).xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571">
   <si>
     <t>Name</t>
   </si>
@@ -1686,6 +1686,15 @@
   </si>
   <si>
     <t>工作中心日历功能测试</t>
+  </si>
+  <si>
+    <t>与老沈开会</t>
+  </si>
+  <si>
+    <t>分析定义参数需求</t>
+  </si>
+  <si>
+    <t>实现参数调整</t>
   </si>
   <si>
     <t>任务工作类型</t>
@@ -2958,10 +2967,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3013,7 +3022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3034,18 +3043,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3058,7 +3076,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3066,7 +3092,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3087,40 +3113,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3134,7 +3135,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3174,25 +3183,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3216,13 +3225,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,13 +3279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,31 +3297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3294,7 +3315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3319,36 +3358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3514,6 +3523,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3525,15 +3558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3562,32 +3586,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3601,13 +3606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3628,10 +3637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3643,130 +3652,130 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4185,10 +4194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J468"/>
+  <dimension ref="A1:J471"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="H468" sqref="H468"/>
+      <selection activeCell="H471" sqref="H471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16288,7 +16297,7 @@
         <v>421</v>
       </c>
       <c r="E468" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F468" s="29">
         <v>100</v>
@@ -16299,6 +16308,84 @@
       </c>
       <c r="I468" s="29"/>
       <c r="J468" s="29"/>
+    </row>
+    <row r="469" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A469" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B469" s="30">
+        <v>42835</v>
+      </c>
+      <c r="C469" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D469" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="E469" s="29">
+        <v>1</v>
+      </c>
+      <c r="F469" s="29">
+        <v>100</v>
+      </c>
+      <c r="G469" s="29"/>
+      <c r="H469" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I469" s="29"/>
+      <c r="J469" s="29"/>
+    </row>
+    <row r="470" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A470" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B470" s="30">
+        <v>42835</v>
+      </c>
+      <c r="C470" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D470" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E470" s="29">
+        <v>4</v>
+      </c>
+      <c r="F470" s="29">
+        <v>100</v>
+      </c>
+      <c r="G470" s="29"/>
+      <c r="H470" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I470" s="29"/>
+      <c r="J470" s="29"/>
+    </row>
+    <row r="471" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A471" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B471" s="30">
+        <v>42835</v>
+      </c>
+      <c r="C471" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D471" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="E471" s="29">
+        <v>3</v>
+      </c>
+      <c r="F471" s="29">
+        <v>30</v>
+      </c>
+      <c r="G471" s="29"/>
+      <c r="H471" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I471" s="29"/>
+      <c r="J471" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I224">
@@ -16309,14 +16396,14 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C1:C414 C416:C417 C469:C1048576">
-      <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H1:H255 H381:H382 H469:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H1:H255 H381:H382 H472:H1048576">
       <formula1>引用!$A$2:$A$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I1:I255 I381:I382 I469:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I1:I255 I381:I382 I472:I1048576">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C1:C414 C416:C417 C472:C1048576">
+      <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16344,111 +16431,111 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -16457,60 +16544,60 @@
         <v>227</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="17" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="17" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="17" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
@@ -16518,27 +16605,27 @@
         <v>157</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -16546,27 +16633,27 @@
         <v>284</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="15" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -16574,25 +16661,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="15" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
@@ -16600,25 +16687,25 @@
         <v>161</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -16626,13 +16713,13 @@
         <v>68</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16640,49 +16727,49 @@
         <v>186</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="19"/>
       <c r="B43" s="14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="19"/>
       <c r="B44" s="14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19"/>
       <c r="B45" s="14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="19"/>
       <c r="B46" s="14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19"/>
       <c r="B47" s="14" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19"/>
       <c r="B48" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="20"/>
       <c r="B49" s="15" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:2">
@@ -16690,7 +16777,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:2">
@@ -16698,27 +16785,27 @@
         <v>173</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10"/>
       <c r="B53" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:2">
@@ -16726,15 +16813,15 @@
         <v>256</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:2">
@@ -16742,19 +16829,19 @@
         <v>171</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="10"/>
       <c r="B58" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" s="15" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:2">
@@ -16762,7 +16849,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16770,25 +16857,25 @@
         <v>23</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10"/>
       <c r="B63" s="14" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="15" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:2">
@@ -16796,23 +16883,23 @@
         <v>49</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:2">
@@ -16820,13 +16907,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:2">
@@ -16834,19 +16921,19 @@
         <v>29</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="10"/>
       <c r="B71" s="14" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:2">
       <c r="A72" s="5"/>
       <c r="B72" s="15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:2">
@@ -16854,7 +16941,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
@@ -16862,21 +16949,21 @@
         <v>59</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:2">
@@ -16884,13 +16971,13 @@
         <v>34</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:2">
       <c r="A78" s="20"/>
       <c r="B78" s="15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -16898,61 +16985,61 @@
         <v>71</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10"/>
       <c r="B80" s="14" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10"/>
       <c r="B81" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10"/>
       <c r="B82" s="14" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10"/>
       <c r="B83" s="14" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10"/>
       <c r="B84" s="14" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10"/>
       <c r="B85" s="14" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10"/>
       <c r="B86" s="14" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="10"/>
       <c r="B87" s="14" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:2">
       <c r="A88" s="5"/>
       <c r="B88" s="15" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -16960,37 +17047,37 @@
         <v>26</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10"/>
       <c r="B90" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10"/>
       <c r="B91" s="14" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10"/>
       <c r="B92" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="10"/>
       <c r="B93" s="14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:2">
       <c r="A94" s="5"/>
       <c r="B94" s="15" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:2">
@@ -16998,57 +17085,57 @@
         <v>73</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10"/>
       <c r="B97" s="14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10"/>
       <c r="B98" s="14" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10"/>
       <c r="B99" s="14" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10"/>
       <c r="B100" s="14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10"/>
       <c r="B101" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="10"/>
       <c r="B102" s="14" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="5"/>
       <c r="B103" s="15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
@@ -17056,67 +17143,67 @@
         <v>403</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10"/>
       <c r="B105" s="23" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10"/>
       <c r="B106" s="23" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10"/>
       <c r="B107" s="23" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="10"/>
       <c r="B108" s="24" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10"/>
       <c r="B109" s="23" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="10"/>
       <c r="B110" s="24" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10"/>
       <c r="B111" s="23" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10"/>
       <c r="B112" s="23" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10"/>
       <c r="B113" s="23" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="25" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -17124,55 +17211,55 @@
         <v>276</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:2">
       <c r="A116" s="5"/>
       <c r="B116" s="15" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:2">
       <c r="A119" s="5"/>
       <c r="B119" s="15" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10"/>
       <c r="B121" s="14" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:2">
       <c r="A122" s="5"/>
       <c r="B122" s="15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -17180,31 +17267,31 @@
         <v>271</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10"/>
       <c r="B124" s="14" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:2">
       <c r="A125" s="10"/>
       <c r="B125" s="14" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:2">
       <c r="A126" s="10"/>
       <c r="B126" s="14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:2">
       <c r="A127" s="5"/>
       <c r="B127" s="15" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:2">
@@ -17212,7 +17299,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -17220,19 +17307,19 @@
         <v>21</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:2">
       <c r="A130" s="10"/>
       <c r="B130" s="6" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="5"/>
       <c r="B131" s="13" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -17299,22 +17386,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -17324,7 +17411,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -17334,7 +17421,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17344,7 +17431,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -17379,7 +17466,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -17389,7 +17476,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -17414,12 +17501,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -17444,7 +17531,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -17469,7 +17556,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -17484,17 +17571,17 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/Timesheet(陈富康).xlsx
+++ b/Timesheet(陈富康).xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577">
   <si>
     <t>Name</t>
   </si>
@@ -1695,6 +1695,27 @@
   </si>
   <si>
     <t>实现参数调整</t>
+  </si>
+  <si>
+    <t>实现参数调整(失败,所有代码撤销)</t>
+  </si>
+  <si>
+    <t>与Ray开会</t>
+  </si>
+  <si>
+    <t>测试参数调整</t>
+  </si>
+  <si>
+    <t>app调整</t>
+  </si>
+  <si>
+    <t>app上传github</t>
+  </si>
+  <si>
+    <t>Management - Other</t>
+  </si>
+  <si>
+    <t>调整github</t>
   </si>
   <si>
     <t>任务工作类型</t>
@@ -2716,9 +2737,6 @@
     </r>
   </si>
   <si>
-    <t>Management - Other</t>
-  </si>
-  <si>
     <t>交付项目</t>
   </si>
   <si>
@@ -2967,10 +2985,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3127,8 +3145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3141,9 +3160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3189,18 +3207,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3213,13 +3219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,13 +3255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3267,7 +3279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3291,13 +3309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,13 +3321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,7 +3345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3351,13 +3369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3637,10 +3655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3649,7 +3667,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3658,7 +3676,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3670,10 +3688,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3694,7 +3712,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3703,19 +3721,19 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3724,40 +3742,40 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3766,13 +3784,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4194,10 +4212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J471"/>
+  <dimension ref="A1:J480"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="H471" sqref="H471"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="H480" sqref="H480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16387,6 +16405,240 @@
       <c r="I471" s="29"/>
       <c r="J471" s="29"/>
     </row>
+    <row r="472" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A472" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B472" s="30">
+        <v>42836</v>
+      </c>
+      <c r="C472" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D472" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="E472" s="29">
+        <v>6</v>
+      </c>
+      <c r="F472" s="29">
+        <v>0</v>
+      </c>
+      <c r="G472" s="29"/>
+      <c r="H472" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I472" s="29"/>
+      <c r="J472" s="29"/>
+    </row>
+    <row r="473" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A473" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B473" s="30">
+        <v>42836</v>
+      </c>
+      <c r="C473" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D473" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="E473" s="29">
+        <v>2</v>
+      </c>
+      <c r="F473" s="29">
+        <v>30</v>
+      </c>
+      <c r="G473" s="29"/>
+      <c r="H473" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I473" s="29"/>
+      <c r="J473" s="29"/>
+    </row>
+    <row r="474" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A474" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B474" s="30">
+        <v>42837</v>
+      </c>
+      <c r="C474" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D474" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="E474" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F474" s="29">
+        <v>100</v>
+      </c>
+      <c r="G474" s="29"/>
+      <c r="H474" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I474" s="29"/>
+      <c r="J474" s="29"/>
+    </row>
+    <row r="475" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A475" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" s="30">
+        <v>42837</v>
+      </c>
+      <c r="C475" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D475" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="E475" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="F475" s="29">
+        <v>100</v>
+      </c>
+      <c r="G475" s="29"/>
+      <c r="H475" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I475" s="29"/>
+      <c r="J475" s="29"/>
+    </row>
+    <row r="476" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A476" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B476" s="30">
+        <v>42838</v>
+      </c>
+      <c r="C476" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D476" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E476" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="F476" s="29">
+        <v>100</v>
+      </c>
+      <c r="G476" s="29"/>
+      <c r="H476" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I476" s="29"/>
+      <c r="J476" s="29"/>
+    </row>
+    <row r="477" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A477" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B477" s="30">
+        <v>42838</v>
+      </c>
+      <c r="C477" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D477" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="E477" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="F477" s="29">
+        <v>100</v>
+      </c>
+      <c r="G477" s="29"/>
+      <c r="H477" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I477" s="29"/>
+      <c r="J477" s="29"/>
+    </row>
+    <row r="478" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A478" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B478" s="30">
+        <v>42839</v>
+      </c>
+      <c r="C478" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D478" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="E478" s="29">
+        <v>1</v>
+      </c>
+      <c r="F478" s="29">
+        <v>100</v>
+      </c>
+      <c r="G478" s="29"/>
+      <c r="H478" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="I478" s="29"/>
+      <c r="J478" s="29"/>
+    </row>
+    <row r="479" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A479" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B479" s="30">
+        <v>42839</v>
+      </c>
+      <c r="C479" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D479" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E479" s="29">
+        <v>3</v>
+      </c>
+      <c r="F479" s="29">
+        <v>100</v>
+      </c>
+      <c r="G479" s="29"/>
+      <c r="H479" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I479" s="29"/>
+      <c r="J479" s="29"/>
+    </row>
+    <row r="480" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A480" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B480" s="30">
+        <v>42839</v>
+      </c>
+      <c r="C480" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D480" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="E480" s="29">
+        <v>4</v>
+      </c>
+      <c r="F480" s="29">
+        <v>100</v>
+      </c>
+      <c r="G480" s="29"/>
+      <c r="H480" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="I480" s="29"/>
+      <c r="J480" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I224">
     <filterColumn colId="1">
@@ -16396,13 +16648,13 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H1:H255 H381:H382 H472:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H1:H255 H381:H382 H481:H1048576">
       <formula1>引用!$A$2:$A$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I1:I255 I381:I382 I472:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I1:I255 I381:I382 I481:I1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C1:C414 C416:C417 C472:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C1:C414 C416:C417 C481:C1048576">
       <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16431,111 +16683,111 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -16544,60 +16796,60 @@
         <v>227</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="14" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="17" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="17" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="17" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="12" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
@@ -16605,27 +16857,27 @@
         <v>157</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -16633,27 +16885,27 @@
         <v>284</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="15" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -16661,25 +16913,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="15" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
@@ -16687,25 +16939,25 @@
         <v>161</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -16713,13 +16965,13 @@
         <v>68</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="15" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16727,49 +16979,49 @@
         <v>186</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="19"/>
       <c r="B43" s="14" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="19"/>
       <c r="B44" s="14" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19"/>
       <c r="B45" s="14" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="19"/>
       <c r="B46" s="14" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19"/>
       <c r="B47" s="14" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19"/>
       <c r="B48" s="14" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="20"/>
       <c r="B49" s="15" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:2">
@@ -16777,7 +17029,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:2">
@@ -16785,27 +17037,27 @@
         <v>173</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10"/>
       <c r="B53" s="14" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:2">
@@ -16813,15 +17065,15 @@
         <v>256</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:2">
@@ -16829,19 +17081,19 @@
         <v>171</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="10"/>
       <c r="B58" s="14" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" s="15" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:2">
@@ -16849,7 +17101,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16857,25 +17109,25 @@
         <v>23</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10"/>
       <c r="B63" s="14" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="15" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:2">
@@ -16883,23 +17135,23 @@
         <v>49</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:2">
@@ -16907,13 +17159,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:2">
@@ -16921,19 +17173,19 @@
         <v>29</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="10"/>
       <c r="B71" s="14" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:2">
       <c r="A72" s="5"/>
       <c r="B72" s="15" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:2">
@@ -16941,7 +17193,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
@@ -16949,21 +17201,21 @@
         <v>59</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:2">
@@ -16971,13 +17223,13 @@
         <v>34</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:2">
       <c r="A78" s="20"/>
       <c r="B78" s="15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -16985,61 +17237,61 @@
         <v>71</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10"/>
       <c r="B80" s="14" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10"/>
       <c r="B81" s="14" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10"/>
       <c r="B82" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10"/>
       <c r="B83" s="14" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10"/>
       <c r="B84" s="14" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10"/>
       <c r="B85" s="14" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10"/>
       <c r="B86" s="14" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="10"/>
       <c r="B87" s="14" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:2">
       <c r="A88" s="5"/>
       <c r="B88" s="15" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -17047,37 +17299,37 @@
         <v>26</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10"/>
       <c r="B90" s="14" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10"/>
       <c r="B91" s="14" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10"/>
       <c r="B92" s="14" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="10"/>
       <c r="B93" s="14" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:2">
       <c r="A94" s="5"/>
       <c r="B94" s="15" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:2">
@@ -17085,57 +17337,57 @@
         <v>73</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10"/>
       <c r="B97" s="14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10"/>
       <c r="B98" s="14" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10"/>
       <c r="B99" s="14" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10"/>
       <c r="B100" s="14" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10"/>
       <c r="B101" s="14" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="10"/>
       <c r="B102" s="14" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="5"/>
       <c r="B103" s="15" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
@@ -17143,67 +17395,67 @@
         <v>403</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10"/>
       <c r="B105" s="23" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10"/>
       <c r="B106" s="23" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10"/>
       <c r="B107" s="23" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="10"/>
       <c r="B108" s="24" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10"/>
       <c r="B109" s="23" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="10"/>
       <c r="B110" s="24" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10"/>
       <c r="B111" s="23" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10"/>
       <c r="B112" s="23" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10"/>
       <c r="B113" s="23" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="25" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -17211,55 +17463,55 @@
         <v>276</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:2">
       <c r="A116" s="5"/>
       <c r="B116" s="15" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:2">
       <c r="A119" s="5"/>
       <c r="B119" s="15" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10"/>
       <c r="B121" s="14" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:2">
       <c r="A122" s="5"/>
       <c r="B122" s="15" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -17267,31 +17519,31 @@
         <v>271</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10"/>
       <c r="B124" s="14" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:2">
       <c r="A125" s="10"/>
       <c r="B125" s="14" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:2">
       <c r="A126" s="10"/>
       <c r="B126" s="14" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:2">
       <c r="A127" s="5"/>
       <c r="B127" s="15" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:2">
@@ -17299,7 +17551,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -17307,19 +17559,19 @@
         <v>21</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:2">
       <c r="A130" s="10"/>
       <c r="B130" s="6" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="5"/>
       <c r="B131" s="13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -17386,22 +17638,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -17411,7 +17663,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -17421,7 +17673,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17431,7 +17683,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -17466,7 +17718,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -17476,7 +17728,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -17501,12 +17753,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -17531,7 +17783,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -17556,7 +17808,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -17571,17 +17823,17 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/Timesheet(陈富康).xlsx
+++ b/Timesheet(陈富康).xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
   <si>
     <t>Name</t>
   </si>
@@ -1716,6 +1716,30 @@
   </si>
   <si>
     <t>调整github</t>
+  </si>
+  <si>
+    <t>看需求文档-工序的成产条件定义</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>整理计划</t>
+  </si>
+  <si>
+    <t>配置工序生产条件定义</t>
+  </si>
+  <si>
+    <t>AX-开会</t>
+  </si>
+  <si>
+    <t>AX-开会(报给客户请假)</t>
+  </si>
+  <si>
+    <t>配置工序生产条件定义
+界面实现
+配置值管理
+界面实现</t>
   </si>
   <si>
     <t>任务工作类型</t>
@@ -2986,9 +3010,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -4212,10 +4236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J480"/>
+  <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="H480" sqref="H480"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="G486" sqref="G486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16639,6 +16663,266 @@
       <c r="I480" s="29"/>
       <c r="J480" s="29"/>
     </row>
+    <row r="481" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A481" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B481" s="30">
+        <v>42842</v>
+      </c>
+      <c r="C481" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D481" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="E481" s="29">
+        <v>2</v>
+      </c>
+      <c r="F481" s="29">
+        <v>100</v>
+      </c>
+      <c r="G481" s="29"/>
+      <c r="H481" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I481" s="29"/>
+      <c r="J481" s="29"/>
+    </row>
+    <row r="482" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A482" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B482" s="30">
+        <v>42842</v>
+      </c>
+      <c r="C482" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D482" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="E482" s="29">
+        <v>6</v>
+      </c>
+      <c r="F482" s="29">
+        <v>100</v>
+      </c>
+      <c r="G482" s="29"/>
+      <c r="H482" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I482" s="29"/>
+      <c r="J482" s="29"/>
+    </row>
+    <row r="483" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A483" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B483" s="30">
+        <v>42843</v>
+      </c>
+      <c r="C483" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D483" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="E483" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="F483" s="29">
+        <v>100</v>
+      </c>
+      <c r="G483" s="29"/>
+      <c r="H483" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="I483" s="29"/>
+      <c r="J483" s="29"/>
+    </row>
+    <row r="484" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A484" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B484" s="30">
+        <v>42843</v>
+      </c>
+      <c r="C484" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D484" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E484" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="F484" s="29">
+        <v>100</v>
+      </c>
+      <c r="G484" s="29"/>
+      <c r="H484" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I484" s="29"/>
+      <c r="J484" s="29"/>
+    </row>
+    <row r="485" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A485" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485" s="30">
+        <v>42844</v>
+      </c>
+      <c r="C485" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D485" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E485" s="29">
+        <v>2</v>
+      </c>
+      <c r="F485" s="29">
+        <v>100</v>
+      </c>
+      <c r="G485" s="29"/>
+      <c r="H485" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I485" s="29"/>
+      <c r="J485" s="29"/>
+    </row>
+    <row r="486" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A486" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B486" s="30">
+        <v>42844</v>
+      </c>
+      <c r="C486" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D486" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="E486" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="F486" s="29">
+        <v>100</v>
+      </c>
+      <c r="G486" s="29"/>
+      <c r="H486" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I486" s="29"/>
+      <c r="J486" s="29"/>
+    </row>
+    <row r="487" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A487" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="30">
+        <v>42844</v>
+      </c>
+      <c r="C487" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D487" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E487" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="F487" s="29">
+        <v>100</v>
+      </c>
+      <c r="G487" s="29"/>
+      <c r="H487" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I487" s="29"/>
+      <c r="J487" s="29"/>
+    </row>
+    <row r="488" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A488" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" s="30">
+        <v>42845</v>
+      </c>
+      <c r="C488" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D488" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E488" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="F488" s="29">
+        <v>100</v>
+      </c>
+      <c r="G488" s="29"/>
+      <c r="H488" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I488" s="29"/>
+      <c r="J488" s="29"/>
+    </row>
+    <row r="489" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A489" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B489" s="30">
+        <v>42845</v>
+      </c>
+      <c r="C489" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D489" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="E489" s="29">
+        <v>3</v>
+      </c>
+      <c r="F489" s="29">
+        <v>100</v>
+      </c>
+      <c r="G489" s="29"/>
+      <c r="H489" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I489" s="29"/>
+      <c r="J489" s="29"/>
+    </row>
+    <row r="490" s="27" customFormat="1" ht="54" spans="1:10">
+      <c r="A490" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B490" s="30">
+        <v>42846</v>
+      </c>
+      <c r="C490" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D490" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="E490" s="29">
+        <v>8</v>
+      </c>
+      <c r="F490" s="29">
+        <v>80</v>
+      </c>
+      <c r="G490" s="29"/>
+      <c r="H490" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I490" s="29"/>
+      <c r="J490" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I224">
     <filterColumn colId="1">
@@ -16648,14 +16932,14 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H1:H255 H381:H382 H481:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C481 C482 C483 C484 C485 C486 C487 C488 C489 C490 C1:C414 C416:C417 C491:C1048576">
+      <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H481 H482 H483 H484 H485 H486 H487 H488 H489 H490 H1:H255 H381:H382 H491:H1048576">
       <formula1>引用!$A$2:$A$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I1:I255 I381:I382 I481:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I1:I255 I381:I382 I491:I1048576">
       <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C1:C414 C416:C417 C481:C1048576">
-      <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16683,111 +16967,111 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -16796,60 +17080,60 @@
         <v>227</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="14" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="17" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="12" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
@@ -16857,27 +17141,27 @@
         <v>157</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -16885,27 +17169,27 @@
         <v>284</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="15" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -16913,25 +17197,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="15" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
@@ -16939,25 +17223,25 @@
         <v>161</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -16965,13 +17249,13 @@
         <v>68</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="15" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16979,49 +17263,49 @@
         <v>186</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="19"/>
       <c r="B43" s="14" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="19"/>
       <c r="B44" s="14" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19"/>
       <c r="B45" s="14" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="19"/>
       <c r="B46" s="14" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19"/>
       <c r="B47" s="14" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19"/>
       <c r="B48" s="14" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="20"/>
       <c r="B49" s="15" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:2">
@@ -17029,7 +17313,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:2">
@@ -17037,27 +17321,27 @@
         <v>173</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10"/>
       <c r="B53" s="14" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:2">
@@ -17065,15 +17349,15 @@
         <v>256</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:2">
@@ -17081,19 +17365,19 @@
         <v>171</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="10"/>
       <c r="B58" s="14" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" s="15" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:2">
@@ -17101,7 +17385,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -17109,25 +17393,25 @@
         <v>23</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10"/>
       <c r="B63" s="14" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="15" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:2">
@@ -17135,23 +17419,23 @@
         <v>49</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:2">
@@ -17159,13 +17443,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:2">
@@ -17173,19 +17457,19 @@
         <v>29</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="10"/>
       <c r="B71" s="14" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:2">
       <c r="A72" s="5"/>
       <c r="B72" s="15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:2">
@@ -17193,7 +17477,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
@@ -17201,21 +17485,21 @@
         <v>59</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:2">
@@ -17223,13 +17507,13 @@
         <v>34</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:2">
       <c r="A78" s="20"/>
       <c r="B78" s="15" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -17237,61 +17521,61 @@
         <v>71</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10"/>
       <c r="B80" s="14" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10"/>
       <c r="B81" s="14" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10"/>
       <c r="B82" s="14" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10"/>
       <c r="B83" s="14" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10"/>
       <c r="B84" s="14" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10"/>
       <c r="B85" s="14" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10"/>
       <c r="B86" s="14" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="10"/>
       <c r="B87" s="14" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:2">
       <c r="A88" s="5"/>
       <c r="B88" s="15" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -17299,37 +17583,37 @@
         <v>26</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10"/>
       <c r="B90" s="14" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10"/>
       <c r="B91" s="14" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10"/>
       <c r="B92" s="14" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="10"/>
       <c r="B93" s="14" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:2">
       <c r="A94" s="5"/>
       <c r="B94" s="15" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:2">
@@ -17337,7 +17621,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -17345,49 +17629,49 @@
         <v>430</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10"/>
       <c r="B97" s="14" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10"/>
       <c r="B98" s="14" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10"/>
       <c r="B99" s="14" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10"/>
       <c r="B100" s="14" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10"/>
       <c r="B101" s="14" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="10"/>
       <c r="B102" s="14" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="5"/>
       <c r="B103" s="15" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
@@ -17395,67 +17679,67 @@
         <v>403</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10"/>
       <c r="B105" s="23" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10"/>
       <c r="B106" s="23" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10"/>
       <c r="B107" s="23" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="10"/>
       <c r="B108" s="24" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10"/>
       <c r="B109" s="23" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="10"/>
       <c r="B110" s="24" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10"/>
       <c r="B111" s="23" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10"/>
       <c r="B112" s="23" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10"/>
       <c r="B113" s="23" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="25" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -17463,55 +17747,55 @@
         <v>276</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:2">
       <c r="A116" s="5"/>
       <c r="B116" s="15" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:2">
       <c r="A119" s="5"/>
       <c r="B119" s="15" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10"/>
       <c r="B121" s="14" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:2">
       <c r="A122" s="5"/>
       <c r="B122" s="15" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -17519,31 +17803,31 @@
         <v>271</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10"/>
       <c r="B124" s="14" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:2">
       <c r="A125" s="10"/>
       <c r="B125" s="14" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:2">
       <c r="A126" s="10"/>
       <c r="B126" s="14" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:2">
       <c r="A127" s="5"/>
       <c r="B127" s="15" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:2">
@@ -17551,7 +17835,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -17559,19 +17843,19 @@
         <v>21</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:2">
       <c r="A130" s="10"/>
       <c r="B130" s="6" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="5"/>
       <c r="B131" s="13" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -17638,22 +17922,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -17663,7 +17947,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -17673,7 +17957,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17683,7 +17967,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -17718,7 +18002,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -17728,7 +18012,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -17753,12 +18037,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -17783,7 +18067,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -17823,17 +18107,17 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/Timesheet(陈富康).xlsx
+++ b/Timesheet(陈富康).xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590">
   <si>
     <t>Name</t>
   </si>
@@ -1740,6 +1740,24 @@
 界面实现
 配置值管理
 界面实现</t>
+  </si>
+  <si>
+    <t>配置工序生产条件定义测试</t>
+  </si>
+  <si>
+    <t>APK发布研究</t>
+  </si>
+  <si>
+    <t>测试APS系统</t>
+  </si>
+  <si>
+    <t>JSON问题讨论</t>
+  </si>
+  <si>
+    <t>Issue Log整理记录</t>
+  </si>
+  <si>
+    <t>研究视频会议</t>
   </si>
   <si>
     <t>任务工作类型</t>
@@ -3085,37 +3103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3134,7 +3121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3156,14 +3143,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3178,14 +3188,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3225,25 +3243,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,73 +3291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,6 +3345,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3400,6 +3388,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3630,17 +3648,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
@@ -3665,6 +3672,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3679,10 +3697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3691,133 +3709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4236,10 +4254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J490"/>
+  <dimension ref="A1:J500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="G486" sqref="G486"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="C498" sqref="C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16923,6 +16941,266 @@
       <c r="I490" s="29"/>
       <c r="J490" s="29"/>
     </row>
+    <row r="491" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A491" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B491" s="30">
+        <v>42849</v>
+      </c>
+      <c r="C491" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D491" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E491" s="29">
+        <v>1</v>
+      </c>
+      <c r="F491" s="29">
+        <v>100</v>
+      </c>
+      <c r="G491" s="29"/>
+      <c r="H491" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I491" s="29"/>
+      <c r="J491" s="29"/>
+    </row>
+    <row r="492" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A492" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492" s="30">
+        <v>42849</v>
+      </c>
+      <c r="C492" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D492" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E492" s="29">
+        <v>4</v>
+      </c>
+      <c r="F492" s="29">
+        <v>100</v>
+      </c>
+      <c r="G492" s="29"/>
+      <c r="H492" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I492" s="29"/>
+      <c r="J492" s="29"/>
+    </row>
+    <row r="493" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A493" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B493" s="30">
+        <v>42849</v>
+      </c>
+      <c r="C493" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D493" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E493" s="29">
+        <v>3</v>
+      </c>
+      <c r="F493" s="29">
+        <v>100</v>
+      </c>
+      <c r="G493" s="29"/>
+      <c r="H493" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I493" s="29"/>
+      <c r="J493" s="29"/>
+    </row>
+    <row r="494" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A494" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494" s="30">
+        <v>42850</v>
+      </c>
+      <c r="C494" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D494" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E494" s="29">
+        <v>8</v>
+      </c>
+      <c r="F494" s="29">
+        <v>100</v>
+      </c>
+      <c r="G494" s="29"/>
+      <c r="H494" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I494" s="29"/>
+      <c r="J494" s="29"/>
+    </row>
+    <row r="495" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A495" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B495" s="30">
+        <v>42851</v>
+      </c>
+      <c r="C495" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D495" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E495" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="F495" s="29">
+        <v>100</v>
+      </c>
+      <c r="G495" s="29"/>
+      <c r="H495" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I495" s="29"/>
+      <c r="J495" s="29"/>
+    </row>
+    <row r="496" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A496" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B496" s="30">
+        <v>42851</v>
+      </c>
+      <c r="C496" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D496" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="E496" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F496" s="29">
+        <v>100</v>
+      </c>
+      <c r="G496" s="29"/>
+      <c r="H496" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I496" s="29"/>
+      <c r="J496" s="29"/>
+    </row>
+    <row r="497" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A497" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B497" s="30">
+        <v>42852</v>
+      </c>
+      <c r="C497" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D497" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E497" s="29">
+        <v>7</v>
+      </c>
+      <c r="F497" s="29">
+        <v>100</v>
+      </c>
+      <c r="G497" s="29"/>
+      <c r="H497" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I497" s="29"/>
+      <c r="J497" s="29"/>
+    </row>
+    <row r="498" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A498" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B498" s="30">
+        <v>42852</v>
+      </c>
+      <c r="C498" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D498" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E498" s="29">
+        <v>1</v>
+      </c>
+      <c r="F498" s="29">
+        <v>100</v>
+      </c>
+      <c r="G498" s="29"/>
+      <c r="H498" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I498" s="29"/>
+      <c r="J498" s="29"/>
+    </row>
+    <row r="499" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A499" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B499" s="30">
+        <v>42853</v>
+      </c>
+      <c r="C499" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D499" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E499" s="29">
+        <v>5</v>
+      </c>
+      <c r="F499" s="29">
+        <v>100</v>
+      </c>
+      <c r="G499" s="29"/>
+      <c r="H499" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I499" s="29"/>
+      <c r="J499" s="29"/>
+    </row>
+    <row r="500" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A500" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500" s="30">
+        <v>42853</v>
+      </c>
+      <c r="C500" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D500" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="E500" s="29">
+        <v>3</v>
+      </c>
+      <c r="F500" s="29">
+        <v>100</v>
+      </c>
+      <c r="G500" s="29"/>
+      <c r="H500" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I500" s="29"/>
+      <c r="J500" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I224">
     <filterColumn colId="1">
@@ -16932,13 +17210,13 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C481 C482 C483 C484 C485 C486 C487 C488 C489 C490 C1:C414 C416:C417 C491:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H481 H482 H483 H484 H485 H486 H487 H488 H489 H490 H491 H492 H493 H494 H495 H496 H497 H498 H499 H500 H1:H255 H381:H382 H501:H1048576">
+      <formula1>引用!$A$2:$A$44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C481 C482 C483 C484 C485 C486 C487 C488 C489 C490 C491 C492 C493 C494 C495 C496 C497 C498 C499 C500 C1:C414 C416:C417 C501:C1048576">
       <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H481 H482 H483 H484 H485 H486 H487 H488 H489 H490 H1:H255 H381:H382 H491:H1048576">
-      <formula1>引用!$A$2:$A$44</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I1:I255 I381:I382 I491:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I1:I255 I381:I382 I501:I1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16967,111 +17245,111 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -17080,60 +17358,60 @@
         <v>227</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="14" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="17" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="17" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="12" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
@@ -17141,27 +17419,27 @@
         <v>157</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -17169,27 +17447,27 @@
         <v>284</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="15" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -17197,25 +17475,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="15" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
@@ -17223,25 +17501,25 @@
         <v>161</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -17249,13 +17527,13 @@
         <v>68</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="15" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -17263,49 +17541,49 @@
         <v>186</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="19"/>
       <c r="B43" s="14" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="19"/>
       <c r="B44" s="14" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19"/>
       <c r="B45" s="14" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="19"/>
       <c r="B46" s="14" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19"/>
       <c r="B47" s="14" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19"/>
       <c r="B48" s="14" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="20"/>
       <c r="B49" s="15" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:2">
@@ -17313,7 +17591,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:2">
@@ -17321,27 +17599,27 @@
         <v>173</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10"/>
       <c r="B53" s="14" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:2">
@@ -17349,15 +17627,15 @@
         <v>256</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:2">
@@ -17365,19 +17643,19 @@
         <v>171</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="10"/>
       <c r="B58" s="14" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" s="15" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:2">
@@ -17385,7 +17663,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -17393,25 +17671,25 @@
         <v>23</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10"/>
       <c r="B63" s="14" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="15" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:2">
@@ -17419,23 +17697,23 @@
         <v>49</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:2">
@@ -17443,13 +17721,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:2">
@@ -17457,19 +17735,19 @@
         <v>29</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="10"/>
       <c r="B71" s="14" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:2">
       <c r="A72" s="5"/>
       <c r="B72" s="15" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:2">
@@ -17477,7 +17755,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
@@ -17485,21 +17763,21 @@
         <v>59</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:2">
@@ -17507,13 +17785,13 @@
         <v>34</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:2">
       <c r="A78" s="20"/>
       <c r="B78" s="15" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -17521,61 +17799,61 @@
         <v>71</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10"/>
       <c r="B80" s="14" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10"/>
       <c r="B81" s="14" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10"/>
       <c r="B82" s="14" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10"/>
       <c r="B83" s="14" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10"/>
       <c r="B84" s="14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10"/>
       <c r="B85" s="14" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10"/>
       <c r="B86" s="14" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="10"/>
       <c r="B87" s="14" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:2">
       <c r="A88" s="5"/>
       <c r="B88" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -17583,37 +17861,37 @@
         <v>26</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10"/>
       <c r="B90" s="14" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10"/>
       <c r="B91" s="14" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10"/>
       <c r="B92" s="14" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="10"/>
       <c r="B93" s="14" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:2">
       <c r="A94" s="5"/>
       <c r="B94" s="15" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:2">
@@ -17621,7 +17899,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -17629,49 +17907,49 @@
         <v>430</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10"/>
       <c r="B97" s="14" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10"/>
       <c r="B98" s="14" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10"/>
       <c r="B99" s="14" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10"/>
       <c r="B100" s="14" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10"/>
       <c r="B101" s="14" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="10"/>
       <c r="B102" s="14" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="5"/>
       <c r="B103" s="15" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
@@ -17679,67 +17957,67 @@
         <v>403</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10"/>
       <c r="B105" s="23" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10"/>
       <c r="B106" s="23" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10"/>
       <c r="B107" s="23" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="10"/>
       <c r="B108" s="24" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10"/>
       <c r="B109" s="23" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="10"/>
       <c r="B110" s="24" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10"/>
       <c r="B111" s="23" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10"/>
       <c r="B112" s="23" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10"/>
       <c r="B113" s="23" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="25" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -17747,55 +18025,55 @@
         <v>276</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:2">
       <c r="A116" s="5"/>
       <c r="B116" s="15" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:2">
       <c r="A119" s="5"/>
       <c r="B119" s="15" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10"/>
       <c r="B121" s="14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:2">
       <c r="A122" s="5"/>
       <c r="B122" s="15" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -17803,31 +18081,31 @@
         <v>271</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10"/>
       <c r="B124" s="14" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:2">
       <c r="A125" s="10"/>
       <c r="B125" s="14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:2">
       <c r="A126" s="10"/>
       <c r="B126" s="14" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:2">
       <c r="A127" s="5"/>
       <c r="B127" s="15" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:2">
@@ -17835,7 +18113,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -17843,19 +18121,19 @@
         <v>21</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:2">
       <c r="A130" s="10"/>
       <c r="B130" s="6" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="5"/>
       <c r="B131" s="13" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -17922,22 +18200,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -17947,7 +18225,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -17957,7 +18235,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17967,7 +18245,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -18002,7 +18280,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -18012,7 +18290,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -18037,12 +18315,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -18067,7 +18345,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -18107,17 +18385,17 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/Timesheet(陈富康).xlsx
+++ b/Timesheet(陈富康).xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594">
   <si>
     <t>Name</t>
   </si>
@@ -1758,6 +1758,27 @@
   </si>
   <si>
     <t>研究视频会议</t>
+  </si>
+  <si>
+    <t>休假</t>
+  </si>
+  <si>
+    <t>原纱管理项目会议</t>
+  </si>
+  <si>
+    <t>扩展维度规则功能
+1、确认框加入回车响应支持
+2、维度表格添加复选框列
+3、维度表格支持批量删除行
+4、维度表格支持复制功能</t>
+  </si>
+  <si>
+    <t>扩展维度规则功能
+1、维度表格重复项标识
+2、维度表格复选框列可编辑调整</t>
+  </si>
+  <si>
+    <t>维度表格测试</t>
   </si>
   <si>
     <t>任务工作类型</t>
@@ -2993,9 +3014,6 @@
     </r>
   </si>
   <si>
-    <t>休假</t>
-  </si>
-  <si>
     <t>自学</t>
   </si>
   <si>
@@ -3027,10 +3045,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3080,9 +3098,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3103,9 +3128,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3114,6 +3152,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3142,20 +3188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3172,23 +3204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3243,7 +3261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,7 +3273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3267,109 +3297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,7 +3321,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3399,25 +3411,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3583,16 +3601,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3608,16 +3626,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3646,26 +3664,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3697,10 +3715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3709,73 +3727,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3784,58 +3802,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4254,10 +4272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J500"/>
+  <dimension ref="A1:J507"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="C498" sqref="C498"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="H507" sqref="H507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17201,6 +17219,188 @@
       <c r="I500" s="29"/>
       <c r="J500" s="29"/>
     </row>
+    <row r="501" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A501" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" s="30">
+        <v>42856</v>
+      </c>
+      <c r="C501" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D501" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E501" s="29">
+        <v>8</v>
+      </c>
+      <c r="F501" s="29">
+        <v>100</v>
+      </c>
+      <c r="G501" s="29"/>
+      <c r="H501" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I501" s="29"/>
+      <c r="J501" s="29"/>
+    </row>
+    <row r="502" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A502" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B502" s="30">
+        <v>42857</v>
+      </c>
+      <c r="C502" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D502" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E502" s="29">
+        <v>8</v>
+      </c>
+      <c r="F502" s="29">
+        <v>100</v>
+      </c>
+      <c r="G502" s="29"/>
+      <c r="H502" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I502" s="29"/>
+      <c r="J502" s="29"/>
+    </row>
+    <row r="503" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A503" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B503" s="30">
+        <v>42858</v>
+      </c>
+      <c r="C503" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D503" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E503" s="29">
+        <v>8</v>
+      </c>
+      <c r="F503" s="29">
+        <v>100</v>
+      </c>
+      <c r="G503" s="29"/>
+      <c r="H503" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I503" s="29"/>
+      <c r="J503" s="29"/>
+    </row>
+    <row r="504" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A504" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B504" s="30">
+        <v>42859</v>
+      </c>
+      <c r="C504" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D504" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="E504" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="F504" s="29">
+        <v>100</v>
+      </c>
+      <c r="G504" s="29"/>
+      <c r="H504" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I504" s="29"/>
+      <c r="J504" s="29"/>
+    </row>
+    <row r="505" s="27" customFormat="1" ht="67.5" spans="1:10">
+      <c r="A505" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B505" s="30">
+        <v>42859</v>
+      </c>
+      <c r="C505" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D505" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E505" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="F505" s="29">
+        <v>100</v>
+      </c>
+      <c r="G505" s="29"/>
+      <c r="H505" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I505" s="29"/>
+      <c r="J505" s="29"/>
+    </row>
+    <row r="506" s="27" customFormat="1" ht="40.5" spans="1:10">
+      <c r="A506" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B506" s="30">
+        <v>42860</v>
+      </c>
+      <c r="C506" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D506" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E506" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="F506" s="29">
+        <v>100</v>
+      </c>
+      <c r="G506" s="29"/>
+      <c r="H506" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I506" s="29"/>
+      <c r="J506" s="29"/>
+    </row>
+    <row r="507" s="27" customFormat="1" ht="15" spans="1:10">
+      <c r="A507" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B507" s="30">
+        <v>42860</v>
+      </c>
+      <c r="C507" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D507" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="E507" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="F507" s="29">
+        <v>100</v>
+      </c>
+      <c r="G507" s="29"/>
+      <c r="H507" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I507" s="29"/>
+      <c r="J507" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I224">
     <filterColumn colId="1">
@@ -17210,14 +17410,14 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H481 H482 H483 H484 H485 H486 H487 H488 H489 H490 H491 H492 H493 H494 H495 H496 H497 H498 H499 H500 H1:H255 H381:H382 H501:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399 H400 H401 H402 H403 H404 H405 H406 H407 H408 H409 H410 H411 H412 H413 H414 H415 H416 H417 H418 H419 H420 H421 H422 H423 H424 H425 H426 H427 H428 H429 H430 H431 H432 H433 H434 H435 H436 H437 H438 H439 H440 H441 H442 H443 H444 H445 H446 H447 H448 H449 H450 H451 H452 H453 H454 H455 H456 H457 H458 H459 H460 H461 H462 H463 H464 H465 H466 H467 H468 H469 H470 H471 H472 H473 H474 H475 H476 H477 H478 H479 H480 H481 H482 H483 H484 H485 H486 H487 H488 H489 H490 H491 H492 H493 H494 H495 H496 H497 H498 H499 H500 H501 H502 H503 H504 H505 H506 H507 H1:H255 H381:H382 H508:H1048576">
       <formula1>引用!$A$2:$A$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C481 C482 C483 C484 C485 C486 C487 C488 C489 C490 C491 C492 C493 C494 C495 C496 C497 C498 C499 C500 C1:C414 C416:C417 C501:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I1:I255 I381:I382 I508:I1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C415 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C459 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C481 C482 C483 C484 C485 C486 C487 C488 C489 C490 C491 C492 C493 C494 C495 C496 C497 C498 C499 C500 C501 C502 C503 C504 C505 C506 C507 C1:C414 C416:C417 C508:C1048576">
       <formula1>"SRF-ECO不可固色,SRF-LAB修方后配方输出,SRF-LAB内部合染,特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,非常规原白纱,原纱管理,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I1:I255 I381:I382 I501:I1048576">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17245,111 +17445,111 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -17358,60 +17558,60 @@
         <v>227</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="14" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="17" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="17" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="17" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="12" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
@@ -17419,27 +17619,27 @@
         <v>157</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -17447,27 +17647,27 @@
         <v>284</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="15" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -17475,25 +17675,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="15" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
@@ -17501,25 +17701,25 @@
         <v>161</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -17527,13 +17727,13 @@
         <v>68</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="15" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -17541,49 +17741,49 @@
         <v>186</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="19"/>
       <c r="B43" s="14" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="19"/>
       <c r="B44" s="14" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19"/>
       <c r="B45" s="14" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="19"/>
       <c r="B46" s="14" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19"/>
       <c r="B47" s="14" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19"/>
       <c r="B48" s="14" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="20"/>
       <c r="B49" s="15" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:2">
@@ -17591,7 +17791,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:2">
@@ -17599,27 +17799,27 @@
         <v>173</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10"/>
       <c r="B53" s="14" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:2">
@@ -17627,15 +17827,15 @@
         <v>256</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:2">
@@ -17643,19 +17843,19 @@
         <v>171</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="10"/>
       <c r="B58" s="14" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" s="15" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:2">
@@ -17663,7 +17863,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -17671,25 +17871,25 @@
         <v>23</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10"/>
       <c r="B63" s="14" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="15" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:2">
@@ -17697,23 +17897,23 @@
         <v>49</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:2">
@@ -17721,13 +17921,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:2">
@@ -17735,19 +17935,19 @@
         <v>29</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="10"/>
       <c r="B71" s="14" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:2">
       <c r="A72" s="5"/>
       <c r="B72" s="15" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:2">
@@ -17755,7 +17955,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
@@ -17763,21 +17963,21 @@
         <v>59</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:2">
@@ -17785,13 +17985,13 @@
         <v>34</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:2">
       <c r="A78" s="20"/>
       <c r="B78" s="15" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -17799,61 +17999,61 @@
         <v>71</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10"/>
       <c r="B80" s="14" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10"/>
       <c r="B81" s="14" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10"/>
       <c r="B82" s="14" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10"/>
       <c r="B83" s="14" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10"/>
       <c r="B84" s="14" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10"/>
       <c r="B85" s="14" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10"/>
       <c r="B86" s="14" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="10"/>
       <c r="B87" s="14" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:2">
       <c r="A88" s="5"/>
       <c r="B88" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -17861,37 +18061,37 @@
         <v>26</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10"/>
       <c r="B90" s="14" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10"/>
       <c r="B91" s="14" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10"/>
       <c r="B92" s="14" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="10"/>
       <c r="B93" s="14" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:2">
       <c r="A94" s="5"/>
       <c r="B94" s="15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:2">
@@ -17899,7 +18099,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -17907,49 +18107,49 @@
         <v>430</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10"/>
       <c r="B97" s="14" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10"/>
       <c r="B98" s="14" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10"/>
       <c r="B99" s="14" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10"/>
       <c r="B100" s="14" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10"/>
       <c r="B101" s="14" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="10"/>
       <c r="B102" s="14" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="5"/>
       <c r="B103" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
@@ -17957,67 +18157,67 @@
         <v>403</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10"/>
       <c r="B105" s="23" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10"/>
       <c r="B106" s="23" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10"/>
       <c r="B107" s="23" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="10"/>
       <c r="B108" s="24" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10"/>
       <c r="B109" s="23" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="10"/>
       <c r="B110" s="24" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10"/>
       <c r="B111" s="23" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10"/>
       <c r="B112" s="23" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10"/>
       <c r="B113" s="23" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="25" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -18025,55 +18225,55 @@
         <v>276</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:2">
       <c r="A116" s="5"/>
       <c r="B116" s="15" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:2">
       <c r="A119" s="5"/>
       <c r="B119" s="15" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10"/>
       <c r="B121" s="14" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:2">
       <c r="A122" s="5"/>
       <c r="B122" s="15" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -18081,31 +18281,31 @@
         <v>271</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10"/>
       <c r="B124" s="14" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:2">
       <c r="A125" s="10"/>
       <c r="B125" s="14" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:2">
       <c r="A126" s="10"/>
       <c r="B126" s="14" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:2">
       <c r="A127" s="5"/>
       <c r="B127" s="15" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:2">
@@ -18113,7 +18313,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>586</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -18121,19 +18321,19 @@
         <v>21</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:2">
       <c r="A130" s="10"/>
       <c r="B130" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="5"/>
       <c r="B131" s="13" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -18200,22 +18400,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -18225,7 +18425,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -18235,7 +18435,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -18245,7 +18445,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -18280,7 +18480,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -18290,7 +18490,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -18315,12 +18515,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -18345,7 +18545,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -18385,17 +18585,17 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:1">
